--- a/sputnik/personal/uch/uch56.xlsx
+++ b/sputnik/personal/uch/uch56.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса 2018</t>
   </si>
   <si>
@@ -51,23 +48,23 @@
     <t>Оплата членского взноса 2019</t>
   </si>
   <si>
-    <t>Задолженность по оплате пени на 12.03.2019</t>
-  </si>
-  <si>
     <t>Начислены пени за просрочку оплаты взносов 2019 на 49 к.д.</t>
   </si>
   <si>
     <t>Оплачена арендная плата за зем.уч.(с 01.01.2019 по 31.12.2019)</t>
   </si>
   <si>
-    <t>Общая задолжненность по пени 243,43+441,00=684,43-32,92 =651,51</t>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +88,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -206,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,8 +222,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -254,31 +255,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -339,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,10 +373,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +407,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -582,17 +582,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -601,12 +601,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="25"/>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -614,186 +616,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="24">
         <v>43221</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13">
+        <v>633</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="24">
+        <v>43221</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9511.8799999999992</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="25">
+        <v>43536</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <v>10144.879999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A6" s="30">
+        <v>43536</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1653.62</v>
+      </c>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="30">
+        <v>43536</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31">
+        <v>1410.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="26">
+        <v>43586</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15">
+        <v>9376.84</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="27">
+        <v>43466</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19">
+        <v>810.24</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="26">
+        <v>43641</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15">
-        <v>633</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>43221</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15">
-        <v>9511.8799999999992</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>43536</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
-        <v>10144.879999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>43536</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1653.62</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>43536</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6">
-        <v>1410.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>43536</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="26">
+        <v>43788</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="28">
+        <v>43788</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <f>PRODUCT(D11,49,0.001)</f>
+        <v>441</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="27">
+        <v>43851</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9">
-        <f>SUM(C6,-D7)</f>
-        <v>243.42999999999984</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>43586</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="17">
-        <v>9376.84</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>43466</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19">
         <v>810.24</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>43641</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>43788</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>43788</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9">
-        <f>PRODUCT(D12,49,0.001)</f>
-        <v>441</v>
-      </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="29">
         <v>43851</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>13</v>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21">
-        <v>810.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>43850</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23">
         <v>56.84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
-        <v>43850</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8">
-        <v>32.92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="28"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -801,12 +781,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,12 +795,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch56.xlsx
+++ b/sputnik/personal/uch/uch56.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,13 +58,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №56</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,9 +376,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +411,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -582,17 +587,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -601,8 +606,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
@@ -616,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>43221</v>
       </c>
@@ -628,7 +633,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>43221</v>
       </c>
@@ -640,7 +645,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>43536</v>
       </c>
@@ -652,7 +657,7 @@
         <v>10144.879999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>43536</v>
       </c>
@@ -664,7 +669,7 @@
       </c>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>43536</v>
       </c>
@@ -676,7 +681,7 @@
         <v>1410.19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>43586</v>
       </c>
@@ -688,7 +693,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>43466</v>
       </c>
@@ -700,7 +705,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>43641</v>
       </c>
@@ -712,7 +717,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>43788</v>
       </c>
@@ -724,7 +729,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>43788</v>
       </c>
@@ -737,7 +742,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>43851</v>
       </c>
@@ -749,7 +754,7 @@
         <v>810.24</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>43851</v>
       </c>
@@ -761,13 +766,19 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>43952</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10955.12</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -781,12 +792,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,12 +806,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch56.xlsx
+++ b/sputnik/personal/uch/uch56.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,6 +287,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,7 +601,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,15 +781,21 @@
         <v>14</v>
       </c>
       <c r="C15" s="6">
-        <v>10955.12</v>
+        <v>10922.2</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="33">
+        <v>44113</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch56.xlsx
+++ b/sputnik/personal/uch/uch56.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Оплата членского взноса</t>
+  </si>
+  <si>
+    <t>Начислена арендная плата за зем.уч.(с 01.01.2020 по 31.12.2020)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,11 +214,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -291,6 +305,12 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -598,10 +618,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -780,22 +800,75 @@
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
-        <v>10922.2</v>
+      <c r="C15" s="7">
+        <v>10550</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="28">
+        <v>43831</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6">
+        <v>405.12</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>44113</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C17" s="5"/>
+      <c r="D17" s="8">
         <v>500</v>
       </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>44146</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <f>SUM(C3:C18)</f>
+        <v>33381.700000000004</v>
+      </c>
+      <c r="D19" s="8">
+        <f>SUM(D3:D18)</f>
+        <v>31242.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="8">
+        <f>SUM(D19,-C19)</f>
+        <v>-2139.5500000000029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch56.xlsx
+++ b/sputnik/personal/uch/uch56.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Оплачено</t>
   </si>
@@ -67,13 +67,22 @@
   </si>
   <si>
     <t>Начислена арендная плата за зем.уч.(с 01.01.2020 по 31.12.2020)</t>
+  </si>
+  <si>
+    <t>Оплачена арендная плата за зем.уч.(с 01.01.2020 по 31.12.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена арендная плата за зем.уч.(с 01.01.2021 по 31.12.2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +105,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +155,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -215,11 +242,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -229,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,16 +330,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -618,10 +670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -794,81 +846,105 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="36">
         <v>43952</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="38">
         <v>10550</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="34">
         <v>43831</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="35">
         <v>405.12</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="45">
         <v>44113</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="35">
+        <v>405.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>44146</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>44146</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42">
         <v>9000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="8">
-        <f>SUM(C3:C18)</f>
-        <v>33381.700000000004</v>
-      </c>
-      <c r="D19" s="8">
-        <f>SUM(D3:D18)</f>
-        <v>31242.15</v>
-      </c>
+      <c r="A19" s="50">
+        <v>44317</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="53">
+        <v>10250.52</v>
+      </c>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="8">
-        <f>SUM(D19,-C19)</f>
-        <v>-2139.5500000000029</v>
-      </c>
+      <c r="A20" s="48">
+        <v>44317</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="53">
+        <v>416.26</v>
+      </c>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="38"/>
+      <c r="C21" s="51">
+        <f>SUM(C3:C20)</f>
+        <v>44048.480000000003</v>
+      </c>
+      <c r="D21" s="51">
+        <f>SUM(D3:D20)</f>
+        <v>31147.27</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="38"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="8">
+        <f>SUM(D21,-C21)</f>
+        <v>-12901.210000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="38"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="38"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch56.xlsx
+++ b/sputnik/personal/uch/uch56.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Оплачено</t>
   </si>
@@ -670,10 +670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -918,24 +918,33 @@
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="51">
-        <f>SUM(C3:C20)</f>
+      <c r="A21" s="39">
+        <v>44445</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="51">
+        <f>SUM(C3:C21)</f>
         <v>44048.480000000003</v>
       </c>
-      <c r="D21" s="51">
-        <f>SUM(D3:D20)</f>
-        <v>31147.27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="8">
-        <f>SUM(D21,-C21)</f>
-        <v>-12901.210000000003</v>
+      <c r="D22" s="51">
+        <f>SUM(D3:D21)</f>
+        <v>32665.27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="33"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="8">
+        <f>SUM(D22,-C22)</f>
+        <v>-11383.210000000003</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="33"/>
@@ -945,6 +954,9 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch56.xlsx
+++ b/sputnik/personal/uch/uch56.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Оплачено</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Начислена арендная плата за зем.уч.(с 01.01.2021 по 31.12.2022)</t>
+  </si>
+  <si>
+    <t>Оплачена арендная плата за зем.уч.(с 01.01.2021 по 31.12.2022)</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,6 +366,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -673,7 +677,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -901,7 +905,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="53">
-        <v>10250.52</v>
+        <v>11250.52</v>
       </c>
       <c r="D19" s="49"/>
     </row>
@@ -930,20 +934,27 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="51">
-        <f>SUM(C3:C21)</f>
-        <v>44048.480000000003</v>
-      </c>
+      <c r="A22" s="54">
+        <v>44481</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="51"/>
       <c r="D22" s="51">
-        <f>SUM(D3:D21)</f>
-        <v>32665.27</v>
+        <v>11250.52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="54">
+        <v>44481</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="8">
-        <f>SUM(D22,-C22)</f>
-        <v>-11383.210000000003</v>
+        <v>416.26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch56.xlsx
+++ b/sputnik/personal/uch/uch56.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -261,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -367,6 +375,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -677,7 +686,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D21" sqref="D18:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -958,10 +967,20 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="33"/>
+      <c r="C24" s="55">
+        <f>SUM(C3:C23)</f>
+        <v>45048.480000000003</v>
+      </c>
+      <c r="D24" s="55">
+        <f>SUM(D3:D23)</f>
+        <v>44332.05</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="33"/>
+      <c r="D25" s="33">
+        <f>SUM(D24,-C24)</f>
+        <v>-716.43000000000029</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" s="33"/>
